--- a/be-organization.xlsx
+++ b/be-organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="379">
   <si>
     <t>Path</t>
   </si>
@@ -855,7 +855,7 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
-    <t>humanLanguage</t>
+    <t>language</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {language}
@@ -869,43 +869,6 @@
   </si>
   <si>
     <t>This is used where an item may repeat to indicate the language of each repeat.</t>
-  </si>
-  <si>
-    <t>Organization.address.extension.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/language</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Organization.address.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCode</t>
   </si>
   <si>
     <t>Organization.address.use</t>
@@ -1397,7 +1360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI93"/>
+  <dimension ref="A1:AI88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1406,8 +1369,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.82421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -8246,22 +8209,26 @@
         <v>36</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>36</v>
       </c>
@@ -8273,7 +8240,7 @@
         <v>36</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>36</v>
@@ -8285,13 +8252,13 @@
         <v>36</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>36</v>
@@ -8309,7 +8276,7 @@
         <v>36</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>37</v>
@@ -8318,26 +8285,26 @@
         <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>36</v>
@@ -8346,19 +8313,19 @@
         <v>36</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -8372,7 +8339,7 @@
         <v>36</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>36</v>
@@ -8384,48 +8351,48 @@
         <v>36</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8433,7 +8400,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>43</v>
@@ -8445,27 +8412,35 @@
         <v>36</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>36</v>
@@ -8501,24 +8476,24 @@
         <v>36</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8529,7 +8504,7 @@
         <v>37</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>36</v>
@@ -8538,19 +8513,19 @@
         <v>36</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -8564,7 +8539,7 @@
         <v>36</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>36</v>
@@ -8590,21 +8565,23 @@
       <c r="AA72" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="AB72" s="2"/>
+      <c r="AB72" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>50</v>
@@ -8615,13 +8592,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8637,19 +8612,19 @@
         <v>36</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8663,7 +8638,7 @@
         <v>36</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>36</v>
@@ -8675,13 +8650,13 @@
         <v>36</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>36</v>
@@ -8699,7 +8674,7 @@
         <v>36</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>37</v>
@@ -8716,11 +8691,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -8733,26 +8708,24 @@
         <v>36</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>36</v>
       </c>
@@ -8764,7 +8737,7 @@
         <v>36</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>36</v>
@@ -8776,13 +8749,13 @@
         <v>36</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>36</v>
@@ -8800,7 +8773,7 @@
         <v>36</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>37</v>
@@ -8817,11 +8790,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -8840,16 +8813,16 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -8863,7 +8836,7 @@
         <v>36</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>36</v>
@@ -8875,13 +8848,13 @@
         <v>36</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>36</v>
@@ -8899,7 +8872,7 @@
         <v>36</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>37</v>
@@ -8916,11 +8889,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -8942,17 +8915,15 @@
         <v>112</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>36</v>
       </c>
@@ -8964,7 +8935,7 @@
         <v>36</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>36</v>
@@ -9000,7 +8971,7 @@
         <v>36</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>37</v>
@@ -9017,7 +8988,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9028,7 +8999,7 @@
         <v>37</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>36</v>
@@ -9043,13 +9014,13 @@
         <v>112</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9063,7 +9034,7 @@
         <v>36</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>308</v>
+        <v>36</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>36</v>
@@ -9099,13 +9070,13 @@
         <v>36</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>50</v>
@@ -9116,11 +9087,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9139,18 +9110,20 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>36</v>
       </c>
@@ -9162,7 +9135,7 @@
         <v>36</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>36</v>
@@ -9198,7 +9171,7 @@
         <v>36</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>37</v>
@@ -9210,16 +9183,16 @@
         <v>50</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -9238,18 +9211,20 @@
         <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>36</v>
       </c>
@@ -9261,7 +9236,7 @@
         <v>36</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>36</v>
@@ -9297,7 +9272,7 @@
         <v>36</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>37</v>
@@ -9309,23 +9284,23 @@
         <v>50</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>36</v>
@@ -9334,21 +9309,23 @@
         <v>36</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>36</v>
       </c>
@@ -9396,13 +9373,13 @@
         <v>36</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>50</v>
@@ -9413,11 +9390,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -9433,20 +9410,18 @@
         <v>36</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>112</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>330</v>
+        <v>113</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>36</v>
@@ -9459,7 +9434,7 @@
         <v>36</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>36</v>
@@ -9495,7 +9470,7 @@
         <v>36</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>333</v>
+        <v>115</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>37</v>
@@ -9504,26 +9479,26 @@
         <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>36</v>
@@ -9532,19 +9507,19 @@
         <v>36</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>335</v>
+        <v>89</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>337</v>
+        <v>91</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -9582,71 +9557,71 @@
         <v>36</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>338</v>
+        <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>36</v>
@@ -9659,7 +9634,7 @@
         <v>36</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>36</v>
@@ -9695,24 +9670,24 @@
         <v>36</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9732,22 +9707,22 @@
         <v>36</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>36</v>
@@ -9772,13 +9747,13 @@
         <v>36</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>36</v>
+        <v>356</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>36</v>
+        <v>357</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>36</v>
@@ -9796,7 +9771,7 @@
         <v>36</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>37</v>
@@ -9808,12 +9783,12 @@
         <v>50</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>165</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9824,7 +9799,7 @@
         <v>37</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>36</v>
@@ -9836,19 +9811,19 @@
         <v>36</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>36</v>
@@ -9897,13 +9872,13 @@
         <v>36</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>50</v>
@@ -9914,7 +9889,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -9925,7 +9900,7 @@
         <v>37</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>36</v>
@@ -9937,16 +9912,18 @@
         <v>36</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>36</v>
       </c>
@@ -9994,35 +9971,35 @@
         <v>36</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>36</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>36</v>
@@ -10034,18 +10011,20 @@
         <v>36</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>89</v>
+        <v>370</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>36</v>
       </c>
@@ -10081,40 +10060,40 @@
         <v>36</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>118</v>
+        <v>369</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -10127,25 +10106,25 @@
         <v>36</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>375</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>91</v>
+        <v>336</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>100</v>
+        <v>378</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>36</v>
@@ -10194,7 +10173,7 @@
         <v>36</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>37</v>
@@ -10206,514 +10185,11 @@
         <v>50</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI93" t="s" s="2">
         <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI93">
+  <autoFilter ref="A1:AI88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10723,7 +10199,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/be-organization.xlsx
+++ b/be-organization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="380">
   <si>
     <t>Path</t>
   </si>
@@ -824,7 +824,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-address}
 </t>
   </si>
   <si>
@@ -1184,6 +1184,10 @@
   </si>
   <si>
     <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
   </si>
   <si>
     <t>Visiting or postal addresses for the contact</t>
@@ -10011,19 +10015,19 @@
         <v>36</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>36</v>
@@ -10089,7 +10093,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10112,19 +10116,19 @@
         <v>36</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>336</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>36</v>
@@ -10173,7 +10177,7 @@
         <v>36</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>37</v>

--- a/be-organization.xlsx
+++ b/be-organization.xlsx
@@ -672,7 +672,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/CD-HCPARTY</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/cd-hcparty</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>43</v>

--- a/be-organization.xlsx
+++ b/be-organization.xlsx
@@ -350,7 +350,7 @@
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems. 
-Typically, a NIHDI value and/or a CBE or EHP value are given. Other systems are allowed. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed.</t>
+Typically, a NIHDI value and/or a CBE or EHP value are given. Other systems are allowed. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed. When it is given, a consumer SHALL NOT ignore it.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -2422,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
